--- a/biology/Histoire de la zoologie et de la botanique/Henry_Labonne/Henry_Labonne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Labonne/Henry_Labonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Labonne (Montgivray, 28 décembre 1853[1] - Pouligny-Notre-Dame, 19 octobre 1944[2]) est un médecin, naturaliste, explorateur et écrivain français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Labonne (Montgivray, 28 décembre 1853 - Pouligny-Notre-Dame, 19 octobre 1944) est un médecin, naturaliste, explorateur et écrivain français. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un voyage en Scandinavie en 1880, le ministère de l'Instruction publique lui confie en 1885 une mission en Islande. Il part alors de Leith en juillet 1886 sur le Camoens et atteint Reykjavik cinq jours plus tard. Sa première expédition le mène vers l'Hekla et la région des geysers. 
 Le 14 juillet 1886, il atteint le sommet de l'Hekla puis gagne les geysers par Hruni et en suivant la rivière Hvita. Il visite ensuite la plaine de Þingvellir puis revient à Reykjavik où il se repose quelques jours. 
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre de la Société de géographie de Paris, on lui doit de nombreux articles et de nombreuses études sur l'histoire, le folklore, les mœurs et les problèmes économiques et sociales des peuples du nord, souvent publiés dans La Nature et, entre autres, dans la Gazette médicale de Paris ainsi que des ouvrages de vulgarisation médicale et des essais littéraires. 
 En Scandinavie, 1884
